--- a/data/pca/factorExposure/factorExposure_2019-01-16.xlsx
+++ b/data/pca/factorExposure/factorExposure_2019-01-16.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>0.109220516288699</v>
+        <v>0.06856677663047617</v>
       </c>
       <c r="C2">
-        <v>0.002813418018671272</v>
+        <v>0.03547247763814639</v>
       </c>
       <c r="D2">
-        <v>0.07702766105478971</v>
+        <v>0.01804945915984933</v>
       </c>
       <c r="E2">
-        <v>0.01681223868942945</v>
+        <v>0.04256552780952748</v>
       </c>
       <c r="F2">
-        <v>-0.1246079173158271</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>-0.1346001494524161</v>
+      </c>
+      <c r="G2">
+        <v>-0.06610928819753378</v>
+      </c>
+      <c r="H2">
+        <v>0.05302402407361077</v>
+      </c>
+      <c r="I2">
+        <v>-0.1066721963898183</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>0.2163454748096662</v>
+        <v>0.1601044073381036</v>
       </c>
       <c r="C3">
-        <v>-0.1524171707825196</v>
+        <v>0.1093342638665237</v>
       </c>
       <c r="D3">
-        <v>0.0761796140301835</v>
+        <v>-0.007166074406382379</v>
       </c>
       <c r="E3">
-        <v>-0.008655848765877191</v>
+        <v>-0.002249360267384301</v>
       </c>
       <c r="F3">
-        <v>-0.3302808117359314</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>-0.3798829655318674</v>
+      </c>
+      <c r="G3">
+        <v>-0.2810332247932089</v>
+      </c>
+      <c r="H3">
+        <v>0.06565490753303145</v>
+      </c>
+      <c r="I3">
+        <v>-0.3600825463818828</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>0.09514676550391465</v>
+        <v>0.0721715882534819</v>
       </c>
       <c r="C4">
-        <v>-0.03476025347149989</v>
+        <v>0.0497686446506755</v>
       </c>
       <c r="D4">
-        <v>0.0529669646505333</v>
+        <v>-0.0165508888523241</v>
       </c>
       <c r="E4">
-        <v>-0.02804916287986936</v>
+        <v>0.04090756545251149</v>
       </c>
       <c r="F4">
-        <v>-0.0663665038381655</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>-0.07835052054610896</v>
+      </c>
+      <c r="G4">
+        <v>-0.03078596473050591</v>
+      </c>
+      <c r="H4">
+        <v>0.04883004702256232</v>
+      </c>
+      <c r="I4">
+        <v>-0.05587195416159804</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>0</v>
+        <v>0.02202425241224684</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>0.01174675784225822</v>
       </c>
       <c r="D6">
-        <v>0</v>
+        <v>-0.005091984293294423</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>0.006497566339900012</v>
       </c>
       <c r="F6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>-0.007549530128919521</v>
+      </c>
+      <c r="G6">
+        <v>0.01515068738647244</v>
+      </c>
+      <c r="H6">
+        <v>-0.01816049785959906</v>
+      </c>
+      <c r="I6">
+        <v>0.003766925903146639</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>0.04518132253171898</v>
+        <v>0.034949800384882</v>
       </c>
       <c r="C7">
-        <v>-0.01338506428372149</v>
+        <v>0.0192107031685842</v>
       </c>
       <c r="D7">
-        <v>0.04520583002357809</v>
+        <v>-0.03673186538901822</v>
       </c>
       <c r="E7">
-        <v>0.00412521317165878</v>
+        <v>0.02865725535530465</v>
       </c>
       <c r="F7">
-        <v>-0.05683414939940813</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>-0.04831590400668072</v>
+      </c>
+      <c r="G7">
+        <v>-0.05299675430348743</v>
+      </c>
+      <c r="H7">
+        <v>-0.005362390199179726</v>
+      </c>
+      <c r="I7">
+        <v>-0.03636664055722855</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>0.05364420545710845</v>
+        <v>0.02791052035694775</v>
       </c>
       <c r="C8">
-        <v>-0.05427731249178246</v>
+        <v>0.05275476155743665</v>
       </c>
       <c r="D8">
-        <v>0.03325012243390818</v>
+        <v>-0.01351883545440317</v>
       </c>
       <c r="E8">
-        <v>-0.02607038485786062</v>
+        <v>0.0211176036519018</v>
       </c>
       <c r="F8">
-        <v>-0.06302655230013825</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>-0.07036545088354684</v>
+      </c>
+      <c r="G8">
+        <v>-0.04848549856293854</v>
+      </c>
+      <c r="H8">
+        <v>0.03647532171679076</v>
+      </c>
+      <c r="I8">
+        <v>-0.0642896534904886</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>0.08068203481585801</v>
+        <v>0.06076115842551231</v>
       </c>
       <c r="C9">
-        <v>-0.02660893594172015</v>
+        <v>0.04448547942983282</v>
       </c>
       <c r="D9">
-        <v>0.05324450874069173</v>
+        <v>-0.01964925561981264</v>
       </c>
       <c r="E9">
-        <v>-0.04106660090591387</v>
+        <v>0.03619667239173875</v>
       </c>
       <c r="F9">
-        <v>-0.05238978968996279</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>-0.07867951384764869</v>
+      </c>
+      <c r="G9">
+        <v>-0.02885104522499192</v>
+      </c>
+      <c r="H9">
+        <v>0.04375173453749382</v>
+      </c>
+      <c r="I9">
+        <v>-0.03097312800893317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>0.02526722587885395</v>
+        <v>0.03600232025903687</v>
       </c>
       <c r="C10">
-        <v>0.151642246843894</v>
+        <v>-0.1627284255411372</v>
       </c>
       <c r="D10">
-        <v>-0.06893502269698458</v>
+        <v>0.0122523462364432</v>
       </c>
       <c r="E10">
-        <v>0.03720992087942333</v>
+        <v>-0.03697217265909099</v>
       </c>
       <c r="F10">
-        <v>-0.07063851433176073</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>-0.06614579422221145</v>
+      </c>
+      <c r="G10">
+        <v>-0.02938403198121487</v>
+      </c>
+      <c r="H10">
+        <v>0.04077748425695801</v>
+      </c>
+      <c r="I10">
+        <v>-0.04902950639608988</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>0.06016878276258219</v>
+        <v>0.04975313449205816</v>
       </c>
       <c r="C11">
-        <v>-0.01775263075562596</v>
+        <v>0.03362677537810374</v>
       </c>
       <c r="D11">
-        <v>0.01241835917580552</v>
+        <v>0.004984107689862376</v>
       </c>
       <c r="E11">
-        <v>0.00747275576154619</v>
+        <v>0.01032250094995587</v>
       </c>
       <c r="F11">
-        <v>-0.04166297972841364</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>-0.03729464084701442</v>
+      </c>
+      <c r="G11">
+        <v>-0.001413935445437192</v>
+      </c>
+      <c r="H11">
+        <v>0.01544980357251917</v>
+      </c>
+      <c r="I11">
+        <v>-0.02849905091608341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>0.04821092624107837</v>
+        <v>0.04436622324506304</v>
       </c>
       <c r="C12">
-        <v>-0.01980603084725793</v>
+        <v>0.03008674561260868</v>
       </c>
       <c r="D12">
-        <v>0.010755209377658</v>
+        <v>-0.006448948946859732</v>
       </c>
       <c r="E12">
-        <v>-0.01026620366173743</v>
+        <v>0.01056751650001979</v>
       </c>
       <c r="F12">
-        <v>-0.02831474965555067</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>-0.01401238871312305</v>
+      </c>
+      <c r="G12">
+        <v>-0.003088675682278564</v>
+      </c>
+      <c r="H12">
+        <v>0.004760900661491238</v>
+      </c>
+      <c r="I12">
+        <v>-0.01645309880709149</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>0.06242300601827265</v>
+        <v>0.04399405207855632</v>
       </c>
       <c r="C13">
-        <v>-0.02565547587992754</v>
+        <v>0.02943019454554243</v>
       </c>
       <c r="D13">
-        <v>0.02924917431785753</v>
+        <v>0.01372131054143608</v>
       </c>
       <c r="E13">
-        <v>0.02968664059878633</v>
+        <v>0.01160810762059889</v>
       </c>
       <c r="F13">
-        <v>-0.102986914457301</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>-0.1027392720208248</v>
+      </c>
+      <c r="G13">
+        <v>-0.03647133404357575</v>
+      </c>
+      <c r="H13">
+        <v>0.03002268593284064</v>
+      </c>
+      <c r="I13">
+        <v>-0.06204067006741312</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>0.03667695266532077</v>
+        <v>0.02725053437517104</v>
       </c>
       <c r="C14">
-        <v>-0.01923261162345859</v>
+        <v>0.02341755194975895</v>
       </c>
       <c r="D14">
-        <v>0.03950191089730771</v>
+        <v>-0.006487263302975875</v>
       </c>
       <c r="E14">
-        <v>-0.003654148940231718</v>
+        <v>0.02950515807413543</v>
       </c>
       <c r="F14">
-        <v>-0.01766410826948215</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>-0.03459510010934706</v>
+      </c>
+      <c r="G14">
+        <v>-0.05550263113356144</v>
+      </c>
+      <c r="H14">
+        <v>0.01156620763590083</v>
+      </c>
+      <c r="I14">
+        <v>-0.01783647686080216</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>0.051301212647258</v>
+        <v>0.04325354190982198</v>
       </c>
       <c r="C16">
-        <v>-0.02353680616419286</v>
+        <v>0.03560056448599175</v>
       </c>
       <c r="D16">
-        <v>0.009883363792460248</v>
+        <v>-0.000508636794894673</v>
       </c>
       <c r="E16">
-        <v>0.001673937001902361</v>
+        <v>0.008108115796032002</v>
       </c>
       <c r="F16">
-        <v>-0.03375131837911791</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>-0.03398726608776501</v>
+      </c>
+      <c r="G16">
+        <v>-0.005639815190566467</v>
+      </c>
+      <c r="H16">
+        <v>0.004796031375758849</v>
+      </c>
+      <c r="I16">
+        <v>-0.02921505061181661</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>0.06801415634960259</v>
+        <v>0.05356030410670793</v>
       </c>
       <c r="C19">
-        <v>-0.04420185470267467</v>
+        <v>0.04667122009799994</v>
       </c>
       <c r="D19">
-        <v>0.03053487099159205</v>
+        <v>0.001462945709210834</v>
       </c>
       <c r="E19">
-        <v>-9.791673630797087e-06</v>
+        <v>0.02303933131789407</v>
       </c>
       <c r="F19">
-        <v>-0.07583614297321993</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>-0.09000139091148375</v>
+      </c>
+      <c r="G19">
+        <v>-0.0596028145062487</v>
+      </c>
+      <c r="H19">
+        <v>0.01628691252237995</v>
+      </c>
+      <c r="I19">
+        <v>-0.06828771384464188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>0.0342228690349016</v>
+        <v>0.02019533091537553</v>
       </c>
       <c r="C20">
-        <v>-0.03011710029121406</v>
+        <v>0.03086345247973578</v>
       </c>
       <c r="D20">
-        <v>0.04537858789925366</v>
+        <v>-0.00647680795465424</v>
       </c>
       <c r="E20">
-        <v>-0.01715858434185598</v>
+        <v>0.02173423660346534</v>
       </c>
       <c r="F20">
-        <v>-0.06221353286505361</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>-0.06294969215361525</v>
+      </c>
+      <c r="G20">
+        <v>-0.05739885923198978</v>
+      </c>
+      <c r="H20">
+        <v>0.007620378545620462</v>
+      </c>
+      <c r="I20">
+        <v>-0.07674578616184202</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>0.03857262122344664</v>
+        <v>0.03373218362481601</v>
       </c>
       <c r="C21">
-        <v>-0.03791684304369797</v>
+        <v>0.03255956684588607</v>
       </c>
       <c r="D21">
-        <v>0.02226048253407233</v>
+        <v>-0.01249547923610526</v>
       </c>
       <c r="E21">
-        <v>0.006863328861488819</v>
+        <v>0.007904956409000718</v>
       </c>
       <c r="F21">
-        <v>-0.09637430588495516</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>-0.07945609276909428</v>
+      </c>
+      <c r="G21">
+        <v>-0.02316276265272894</v>
+      </c>
+      <c r="H21">
+        <v>0.04767245123062899</v>
+      </c>
+      <c r="I21">
+        <v>-0.003382042575211023</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>0.05013585614672626</v>
+        <v>0.04129768896525362</v>
       </c>
       <c r="C24">
-        <v>-0.02038631817252781</v>
+        <v>0.03093458606399467</v>
       </c>
       <c r="D24">
-        <v>0.01752536168470276</v>
+        <v>-0.001070082766354938</v>
       </c>
       <c r="E24">
-        <v>-0.003375597723123867</v>
+        <v>0.01106663787131055</v>
       </c>
       <c r="F24">
-        <v>-0.0432393233689741</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>-0.03704525490191612</v>
+      </c>
+      <c r="G24">
+        <v>4.640707282625947e-05</v>
+      </c>
+      <c r="H24">
+        <v>0.007598044786836797</v>
+      </c>
+      <c r="I24">
+        <v>-0.02978316264065962</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>0.05245341989963637</v>
+        <v>0.04825159966313911</v>
       </c>
       <c r="C25">
-        <v>-0.01617520910968953</v>
+        <v>0.02777576934888985</v>
       </c>
       <c r="D25">
-        <v>0.0127035641845176</v>
+        <v>-0.0001173536315836604</v>
       </c>
       <c r="E25">
-        <v>-0.001563908258013256</v>
+        <v>0.009538881455180725</v>
       </c>
       <c r="F25">
-        <v>-0.04026642399188241</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>-0.04266615235594164</v>
+      </c>
+      <c r="G25">
+        <v>-0.0006923709374723101</v>
+      </c>
+      <c r="H25">
+        <v>0.01353703132995506</v>
+      </c>
+      <c r="I25">
+        <v>-0.02039051673168013</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>0.02796052206631377</v>
+        <v>0.01845386547150723</v>
       </c>
       <c r="C26">
-        <v>-0.03140635349042472</v>
+        <v>0.02896998530277756</v>
       </c>
       <c r="D26">
-        <v>0.02455325596931645</v>
+        <v>0.003604852977407909</v>
       </c>
       <c r="E26">
-        <v>0.01870068930838573</v>
+        <v>0.003515013188545504</v>
       </c>
       <c r="F26">
-        <v>-0.02951835661186348</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>-0.04253582408013972</v>
+      </c>
+      <c r="G26">
+        <v>-0.03328933672702229</v>
+      </c>
+      <c r="H26">
+        <v>0.01122234828334781</v>
+      </c>
+      <c r="I26">
+        <v>-0.02395645485449467</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>0.1195958462588838</v>
+        <v>0.07122066620927166</v>
       </c>
       <c r="C27">
-        <v>-0.01669039080898082</v>
+        <v>0.02552930559779527</v>
       </c>
       <c r="D27">
-        <v>0.04122732697500294</v>
+        <v>-0.00547102240443333</v>
       </c>
       <c r="E27">
-        <v>-0.02591493324746831</v>
+        <v>0.03376677011791156</v>
       </c>
       <c r="F27">
-        <v>-0.07394898559996711</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>-0.06413332437000081</v>
+      </c>
+      <c r="G27">
+        <v>-0.02163320779635019</v>
+      </c>
+      <c r="H27">
+        <v>0.02445333053373762</v>
+      </c>
+      <c r="I27">
+        <v>-0.0380890579914501</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>0.02524442785193999</v>
+        <v>0.05082840248370054</v>
       </c>
       <c r="C28">
-        <v>0.2275819127693217</v>
+        <v>-0.2473255461887897</v>
       </c>
       <c r="D28">
-        <v>-0.1133740304660082</v>
+        <v>0.01028413178655804</v>
       </c>
       <c r="E28">
-        <v>0.03517103313679985</v>
+        <v>-0.05360696506308057</v>
       </c>
       <c r="F28">
-        <v>-0.0524704050336177</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>-0.05823915086369661</v>
+      </c>
+      <c r="G28">
+        <v>-0.04038664518967878</v>
+      </c>
+      <c r="H28">
+        <v>0.04182556333123907</v>
+      </c>
+      <c r="I28">
+        <v>-0.07218522475142543</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>0.03251508141429762</v>
+        <v>0.0244310171963109</v>
       </c>
       <c r="C29">
-        <v>-0.01839197556946597</v>
+        <v>0.0213908913406726</v>
       </c>
       <c r="D29">
-        <v>0.03695450277737821</v>
+        <v>-0.009689892477996148</v>
       </c>
       <c r="E29">
-        <v>-0.01554208367151759</v>
+        <v>0.0304591047049402</v>
       </c>
       <c r="F29">
-        <v>-0.01717500723827895</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>-0.03109658880487309</v>
+      </c>
+      <c r="G29">
+        <v>-0.05638333837610087</v>
+      </c>
+      <c r="H29">
+        <v>0.01519078136707347</v>
+      </c>
+      <c r="I29">
+        <v>-0.00413782962718443</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>0.1156508582651628</v>
+        <v>0.08904630656366207</v>
       </c>
       <c r="C30">
-        <v>-0.01856864982075619</v>
+        <v>0.05286653617536882</v>
       </c>
       <c r="D30">
-        <v>0.04553925980674834</v>
+        <v>0.03634929764480573</v>
       </c>
       <c r="E30">
-        <v>0.007813590868950985</v>
+        <v>0.03438728444868179</v>
       </c>
       <c r="F30">
-        <v>-0.1030980057161836</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>-0.1040890926448828</v>
+      </c>
+      <c r="G30">
+        <v>-0.01386319101734288</v>
+      </c>
+      <c r="H30">
+        <v>-0.006559524458854472</v>
+      </c>
+      <c r="I30">
+        <v>-0.02442117268879743</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>0.06989515581136625</v>
+        <v>0.0614453900676518</v>
       </c>
       <c r="C31">
-        <v>-0.01339962972031728</v>
+        <v>0.02415676361080571</v>
       </c>
       <c r="D31">
-        <v>0.03030403708910669</v>
+        <v>0.009197598237090166</v>
       </c>
       <c r="E31">
-        <v>0.03225463131976128</v>
+        <v>0.02448886420245572</v>
       </c>
       <c r="F31">
-        <v>0.03765007510025846</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>0.006299134214584423</v>
+      </c>
+      <c r="G31">
+        <v>-0.04844931188995656</v>
+      </c>
+      <c r="H31">
+        <v>0.03068565735996448</v>
+      </c>
+      <c r="I31">
+        <v>-0.01287971431615718</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>0.07089029546486475</v>
+        <v>0.04233706078921425</v>
       </c>
       <c r="C32">
-        <v>-0.0345983331170568</v>
+        <v>0.04593325539539329</v>
       </c>
       <c r="D32">
-        <v>0.04162561163231585</v>
+        <v>-0.01711516716721736</v>
       </c>
       <c r="E32">
-        <v>-0.0147531355035157</v>
+        <v>0.03624681206779062</v>
       </c>
       <c r="F32">
-        <v>-0.08587093724910792</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>-0.08174899043379465</v>
+      </c>
+      <c r="G32">
+        <v>-0.04095347293689196</v>
+      </c>
+      <c r="H32">
+        <v>0.02458130745130892</v>
+      </c>
+      <c r="I32">
+        <v>-0.05125389483309648</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>0.07035588589971828</v>
+        <v>0.05622563813335971</v>
       </c>
       <c r="C33">
-        <v>-0.05356994003994263</v>
+        <v>0.05690680221040194</v>
       </c>
       <c r="D33">
-        <v>0.0431195450817972</v>
+        <v>0.01717002133801265</v>
       </c>
       <c r="E33">
-        <v>0.01387140368143951</v>
+        <v>0.01456350209196939</v>
       </c>
       <c r="F33">
-        <v>-0.06258997618256935</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>-0.07247953783511656</v>
+      </c>
+      <c r="G33">
+        <v>-0.04328041926673829</v>
+      </c>
+      <c r="H33">
+        <v>0.03599710002535123</v>
+      </c>
+      <c r="I33">
+        <v>-0.03096104914051898</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>0.05083745927277777</v>
+        <v>0.04304213046607987</v>
       </c>
       <c r="C34">
-        <v>-0.01923302972516407</v>
+        <v>0.03487516263029015</v>
       </c>
       <c r="D34">
-        <v>0.01881838411473993</v>
+        <v>-0.005189645947619798</v>
       </c>
       <c r="E34">
-        <v>-0.002529679419037899</v>
+        <v>0.01667626166713563</v>
       </c>
       <c r="F34">
-        <v>-0.02737880270193268</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>-0.03289484304645704</v>
+      </c>
+      <c r="G34">
+        <v>-0.008078806121184676</v>
+      </c>
+      <c r="H34">
+        <v>0.008295839123986556</v>
+      </c>
+      <c r="I34">
+        <v>-0.02446111015878902</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>0.0181991229519096</v>
+        <v>0.01577279424387236</v>
       </c>
       <c r="C36">
-        <v>-0.002774918540079437</v>
+        <v>0.006082698944132316</v>
       </c>
       <c r="D36">
-        <v>0.01364893269350945</v>
+        <v>-0.004698181930694406</v>
       </c>
       <c r="E36">
-        <v>-0.005484974695591767</v>
+        <v>0.01063953657776824</v>
       </c>
       <c r="F36">
-        <v>-0.01407179366353647</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>-0.02401771084537213</v>
+      </c>
+      <c r="G36">
+        <v>-0.038977160705463</v>
+      </c>
+      <c r="H36">
+        <v>0.01769416345690951</v>
+      </c>
+      <c r="I36">
+        <v>0.007895115431811204</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>0.04332447450449584</v>
+        <v>0.03513244654896432</v>
       </c>
       <c r="C38">
-        <v>-0.01070169525605151</v>
+        <v>0.01575459925267012</v>
       </c>
       <c r="D38">
-        <v>0.02102818973355976</v>
+        <v>-0.00474237514983318</v>
       </c>
       <c r="E38">
-        <v>-0.01977339821645561</v>
+        <v>0.01266065970357464</v>
       </c>
       <c r="F38">
-        <v>-0.01740427768222205</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>-0.0477080795142063</v>
+      </c>
+      <c r="G38">
+        <v>-0.02999029448122694</v>
+      </c>
+      <c r="H38">
+        <v>0.02217529791379406</v>
+      </c>
+      <c r="I38">
+        <v>0.009669424009761054</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>0.07177980893723127</v>
+        <v>0.05434793625552223</v>
       </c>
       <c r="C39">
-        <v>-0.02012084156079563</v>
+        <v>0.04804741909925179</v>
       </c>
       <c r="D39">
-        <v>0.026007846377865</v>
+        <v>0.004121616321142919</v>
       </c>
       <c r="E39">
-        <v>0.01420697139542831</v>
+        <v>0.01987199179293481</v>
       </c>
       <c r="F39">
-        <v>-0.03424884346881999</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>-0.054410664162629</v>
+      </c>
+      <c r="G39">
+        <v>0.002506442624420678</v>
+      </c>
+      <c r="H39">
+        <v>0.02191915985301226</v>
+      </c>
+      <c r="I39">
+        <v>-0.007869654057496855</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>0.07582290375391874</v>
+        <v>0.05596936259880685</v>
       </c>
       <c r="C40">
-        <v>-0.01806219736083762</v>
+        <v>0.0435064080955716</v>
       </c>
       <c r="D40">
-        <v>0.06004582587042529</v>
+        <v>0.02009215451085847</v>
       </c>
       <c r="E40">
-        <v>0.03419916582008446</v>
+        <v>0.02649495466276744</v>
       </c>
       <c r="F40">
-        <v>-0.104023770031502</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>-0.09540361340366303</v>
+      </c>
+      <c r="G40">
+        <v>-0.03722257980151697</v>
+      </c>
+      <c r="H40">
+        <v>0.02801603482503534</v>
+      </c>
+      <c r="I40">
+        <v>-0.1073515133614082</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.003989339207008388</v>
+        <v>0.004747492987500527</v>
       </c>
       <c r="C41">
-        <v>-0.02270578188348353</v>
+        <v>0.01166498145141611</v>
       </c>
       <c r="D41">
-        <v>0.03139893937056693</v>
+        <v>-3.300522857137903e-05</v>
       </c>
       <c r="E41">
-        <v>-0.00628854497961113</v>
+        <v>0.01112084925528334</v>
       </c>
       <c r="F41">
-        <v>0.01060489428935719</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>-0.009622631388831491</v>
+      </c>
+      <c r="G41">
+        <v>-0.04838080077653948</v>
+      </c>
+      <c r="H41">
+        <v>0.03457758897149733</v>
+      </c>
+      <c r="I41">
+        <v>-0.01295999948412503</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>0.2017984996064423</v>
+        <v>0.2263804768731046</v>
       </c>
       <c r="C42">
-        <v>-0.513203215768263</v>
+        <v>0.2629865740023211</v>
       </c>
       <c r="D42">
-        <v>-0.762123864249768</v>
+        <v>0.04555805435401523</v>
       </c>
       <c r="E42">
-        <v>0.2551077896801907</v>
+        <v>-0.9063505000387212</v>
       </c>
       <c r="F42">
-        <v>0.05123526231520998</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>0.1598251116279613</v>
+      </c>
+      <c r="G42">
+        <v>0.001787497981861728</v>
+      </c>
+      <c r="H42">
+        <v>-0.008043894043423002</v>
+      </c>
+      <c r="I42">
+        <v>-0.05557556507022012</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.007549678626609184</v>
+        <v>0.008746725245872109</v>
       </c>
       <c r="C43">
-        <v>-0.02441755962059246</v>
+        <v>0.01422778585647413</v>
       </c>
       <c r="D43">
-        <v>0.0335143600503886</v>
+        <v>0.002633977671732212</v>
       </c>
       <c r="E43">
-        <v>-0.002102732977670109</v>
+        <v>0.01037750406973173</v>
       </c>
       <c r="F43">
-        <v>-0.02044448643846929</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>-0.0237879994517624</v>
+      </c>
+      <c r="G43">
+        <v>-0.0350254450482602</v>
+      </c>
+      <c r="H43">
+        <v>0.0191968491637205</v>
+      </c>
+      <c r="I43">
+        <v>-0.02260967227758592</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>0.04707494613953609</v>
+        <v>0.03020016772638538</v>
       </c>
       <c r="C44">
-        <v>-0.04563195723075245</v>
+        <v>0.04344781153201476</v>
       </c>
       <c r="D44">
-        <v>0.04585389581964916</v>
+        <v>-0.002950481613589469</v>
       </c>
       <c r="E44">
-        <v>0.00592762938852876</v>
+        <v>0.01818279769111499</v>
       </c>
       <c r="F44">
-        <v>-0.1025297594311694</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>-0.1160791460667197</v>
+      </c>
+      <c r="G44">
+        <v>-0.09003142468001289</v>
+      </c>
+      <c r="H44">
+        <v>0.0475953599053795</v>
+      </c>
+      <c r="I44">
+        <v>-0.05395622412136276</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>0.03409013826062088</v>
+        <v>0.02689621387437614</v>
       </c>
       <c r="C46">
-        <v>-0.02077581159632459</v>
+        <v>0.03642315562097923</v>
       </c>
       <c r="D46">
-        <v>0.03974413550275616</v>
+        <v>0.002916286064337014</v>
       </c>
       <c r="E46">
-        <v>0.0003472300149671197</v>
+        <v>0.03289410636583893</v>
       </c>
       <c r="F46">
-        <v>-0.01397112413737781</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>-0.04315248576589781</v>
+      </c>
+      <c r="G46">
+        <v>-0.05947895952612262</v>
+      </c>
+      <c r="H46">
+        <v>0.01273395060764113</v>
+      </c>
+      <c r="I46">
+        <v>-0.009342749822713901</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>0.09619421193443461</v>
+        <v>0.08685707809685758</v>
       </c>
       <c r="C47">
-        <v>-0.007523494229199556</v>
+        <v>0.01979685476673637</v>
       </c>
       <c r="D47">
-        <v>0.02892757307045124</v>
+        <v>0.004143253896039974</v>
       </c>
       <c r="E47">
-        <v>-0.00275167344531857</v>
+        <v>0.02944732340046576</v>
       </c>
       <c r="F47">
-        <v>0.0324853744270053</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>0.01885797026701213</v>
+      </c>
+      <c r="G47">
+        <v>-0.06469406821071831</v>
+      </c>
+      <c r="H47">
+        <v>0.02303917881233468</v>
+      </c>
+      <c r="I47">
+        <v>-0.03458649410378017</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>0.02142917171376109</v>
+        <v>0.02108963966912593</v>
       </c>
       <c r="C48">
-        <v>-0.02053808181792173</v>
+        <v>0.01802342313132977</v>
       </c>
       <c r="D48">
-        <v>0.02553911685151525</v>
+        <v>-0.001220994023891459</v>
       </c>
       <c r="E48">
-        <v>0.001108931997595348</v>
+        <v>0.01437629935606401</v>
       </c>
       <c r="F48">
-        <v>-0.01860293520416717</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>-0.02541433909718818</v>
+      </c>
+      <c r="G48">
+        <v>-0.02848845237193496</v>
+      </c>
+      <c r="H48">
+        <v>0.01554986982525421</v>
+      </c>
+      <c r="I48">
+        <v>-0.01012134840958853</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>0.09372241080644392</v>
+        <v>0.08891285044012441</v>
       </c>
       <c r="C50">
-        <v>-0.02850043596823696</v>
+        <v>0.04044993021346432</v>
       </c>
       <c r="D50">
-        <v>0.03381069333207733</v>
+        <v>-0.01092639353434376</v>
       </c>
       <c r="E50">
-        <v>0.007091195068659053</v>
+        <v>0.02718590679970377</v>
       </c>
       <c r="F50">
-        <v>0.03127005140834011</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>0.01205305310955919</v>
+      </c>
+      <c r="G50">
+        <v>-0.0379964847301489</v>
+      </c>
+      <c r="H50">
+        <v>-0.01228684770384953</v>
+      </c>
+      <c r="I50">
+        <v>0.004573142769696087</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>0.05751733165870308</v>
+        <v>0.03935255847545282</v>
       </c>
       <c r="C51">
-        <v>0.01552788382608262</v>
+        <v>-0.003827678652619853</v>
       </c>
       <c r="D51">
-        <v>0.02177584290185861</v>
+        <v>0.0107663774236598</v>
       </c>
       <c r="E51">
-        <v>0.0330344385454314</v>
+        <v>0.01168523123415631</v>
       </c>
       <c r="F51">
-        <v>-0.05983664945232448</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>-0.09060309789413742</v>
+      </c>
+      <c r="G51">
+        <v>-0.07111884798991069</v>
+      </c>
+      <c r="H51">
+        <v>0.04808807132672038</v>
+      </c>
+      <c r="I51">
+        <v>-0.03134867079345816</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>0.1348028949282125</v>
+        <v>0.1239578333051221</v>
       </c>
       <c r="C53">
-        <v>-0.006735979312787177</v>
+        <v>0.03643945960663819</v>
       </c>
       <c r="D53">
-        <v>0.05658792144038102</v>
+        <v>0.004689540306470098</v>
       </c>
       <c r="E53">
-        <v>0.00555065694765898</v>
+        <v>0.05513939125246749</v>
       </c>
       <c r="F53">
-        <v>0.06425671390518994</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>0.04921829274255939</v>
+      </c>
+      <c r="G53">
+        <v>-0.01319393781889323</v>
+      </c>
+      <c r="H53">
+        <v>0.02968374229604741</v>
+      </c>
+      <c r="I53">
+        <v>-0.04027062741192954</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>0.02913689036121779</v>
+        <v>0.02693905486110006</v>
       </c>
       <c r="C54">
-        <v>-0.00299768750464516</v>
+        <v>0.006952102239641954</v>
       </c>
       <c r="D54">
-        <v>0.03201488208925558</v>
+        <v>-0.004860656701046822</v>
       </c>
       <c r="E54">
-        <v>-0.006505195397289373</v>
+        <v>0.03062372258214124</v>
       </c>
       <c r="F54">
-        <v>-0.0194395582712944</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>-0.02928208167607812</v>
+      </c>
+      <c r="G54">
+        <v>-0.05513780013598225</v>
+      </c>
+      <c r="H54">
+        <v>0.03039826731743953</v>
+      </c>
+      <c r="I54">
+        <v>-0.002843345687966489</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>0.1064860130677497</v>
+        <v>0.09769650336558897</v>
       </c>
       <c r="C55">
-        <v>0.008067125124707234</v>
+        <v>0.03132622252047666</v>
       </c>
       <c r="D55">
-        <v>0.02928520725059634</v>
+        <v>-0.01333993587130739</v>
       </c>
       <c r="E55">
-        <v>-0.04124034766200672</v>
+        <v>0.03845414732309272</v>
       </c>
       <c r="F55">
-        <v>0.02383191697842883</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>0.03656191184788261</v>
+      </c>
+      <c r="G55">
+        <v>-0.01892033471391461</v>
+      </c>
+      <c r="H55">
+        <v>-0.0118843422762007</v>
+      </c>
+      <c r="I55">
+        <v>-0.02295774226626598</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>0.1672638214223299</v>
+        <v>0.1635156176753422</v>
       </c>
       <c r="C56">
-        <v>0.04593507459455149</v>
+        <v>0.01761564165102435</v>
       </c>
       <c r="D56">
-        <v>0.0757605547742127</v>
+        <v>0.001321296888637461</v>
       </c>
       <c r="E56">
-        <v>-0.02808122752150936</v>
+        <v>0.0869800274155508</v>
       </c>
       <c r="F56">
-        <v>0.1026967514727571</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>0.09277402043986269</v>
+      </c>
+      <c r="G56">
+        <v>0.03694428023566278</v>
+      </c>
+      <c r="H56">
+        <v>-0.005149650752537372</v>
+      </c>
+      <c r="I56">
+        <v>-0.04491712287182185</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>0.08601711211306867</v>
+        <v>0.06656176271406423</v>
       </c>
       <c r="C57">
-        <v>-0.02194635105373834</v>
+        <v>0.0324382280225127</v>
       </c>
       <c r="D57">
-        <v>0.03257358924066778</v>
+        <v>0.02000010720437676</v>
       </c>
       <c r="E57">
-        <v>0.03142370290081119</v>
+        <v>0.004847744118179395</v>
       </c>
       <c r="F57">
-        <v>-0.04050444729588837</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>-0.06700469973219915</v>
+      </c>
+      <c r="G57">
+        <v>-0.02445074628874084</v>
+      </c>
+      <c r="H57">
+        <v>0.01859646820960972</v>
+      </c>
+      <c r="I57">
+        <v>-0.02692191050732502</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>0.2002192614183034</v>
+        <v>0.2098090917610107</v>
       </c>
       <c r="C58">
-        <v>-0.04932659498287651</v>
+        <v>0.1035366965215362</v>
       </c>
       <c r="D58">
-        <v>0.05467273314773961</v>
+        <v>0.09048494172278176</v>
       </c>
       <c r="E58">
-        <v>0.04893465913207755</v>
+        <v>-0.01179034801759411</v>
       </c>
       <c r="F58">
-        <v>-0.1210835222226343</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>-0.2716489948956896</v>
+      </c>
+      <c r="G58">
+        <v>-0.3570402937771461</v>
+      </c>
+      <c r="H58">
+        <v>-0.3650479042943097</v>
+      </c>
+      <c r="I58">
+        <v>0.6927665818352166</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>0.02454580085450584</v>
+        <v>0.0496956674404184</v>
       </c>
       <c r="C59">
-        <v>0.1872607763018757</v>
+        <v>-0.2026726635017957</v>
       </c>
       <c r="D59">
-        <v>-0.06726749919382548</v>
+        <v>0.02318156401413721</v>
       </c>
       <c r="E59">
-        <v>0.0243921382374391</v>
+        <v>-0.01867500982342354</v>
       </c>
       <c r="F59">
-        <v>-0.05397127969863506</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>-0.07058341168404511</v>
+      </c>
+      <c r="G59">
+        <v>0.002382180064107704</v>
+      </c>
+      <c r="H59">
+        <v>0.01665888913352022</v>
+      </c>
+      <c r="I59">
+        <v>-0.01585213156364184</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>0.1797707233421547</v>
+        <v>0.1910640995134054</v>
       </c>
       <c r="C60">
-        <v>0.07534160517807197</v>
+        <v>-0.05065456384407096</v>
       </c>
       <c r="D60">
-        <v>0.01650278388436164</v>
+        <v>0.05088253437727239</v>
       </c>
       <c r="E60">
-        <v>0.0722040720943664</v>
+        <v>0.01040020015005167</v>
       </c>
       <c r="F60">
-        <v>-0.1894402799088832</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>-0.2023640560136789</v>
+      </c>
+      <c r="G60">
+        <v>0.3192543313442769</v>
+      </c>
+      <c r="H60">
+        <v>0.03800056170659843</v>
+      </c>
+      <c r="I60">
+        <v>0.03038625180973466</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>0.04349802587302746</v>
+        <v>0.03915437721745418</v>
       </c>
       <c r="C61">
-        <v>-0.01391694803102277</v>
+        <v>0.03285594067004</v>
       </c>
       <c r="D61">
-        <v>0.01396552303058738</v>
+        <v>-0.002378592806918395</v>
       </c>
       <c r="E61">
-        <v>-0.004420075160019076</v>
+        <v>0.01109642994257795</v>
       </c>
       <c r="F61">
-        <v>-0.03042298014761769</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>-0.03512197056402342</v>
+      </c>
+      <c r="G61">
+        <v>0.005129009589081404</v>
+      </c>
+      <c r="H61">
+        <v>0.01186459362253298</v>
+      </c>
+      <c r="I61">
+        <v>0.003502513939272441</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>0.041996762753701</v>
+        <v>0.03094998330158276</v>
       </c>
       <c r="C63">
-        <v>-0.01089336445973875</v>
+        <v>0.02346404812512505</v>
       </c>
       <c r="D63">
-        <v>0.0254168484883647</v>
+        <v>0.001273365061842013</v>
       </c>
       <c r="E63">
-        <v>0.008020010885048086</v>
+        <v>0.01501603950045035</v>
       </c>
       <c r="F63">
-        <v>-0.03111331538082091</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>-0.02780582789660956</v>
+      </c>
+      <c r="G63">
+        <v>-0.05117017199606042</v>
+      </c>
+      <c r="H63">
+        <v>0.001941786138966649</v>
+      </c>
+      <c r="I63">
+        <v>-0.03523502769362153</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>0.0629264938627413</v>
+        <v>0.05639659789566083</v>
       </c>
       <c r="C64">
-        <v>-0.02610673088790435</v>
+        <v>0.03363930346694749</v>
       </c>
       <c r="D64">
-        <v>0.02951192065150042</v>
+        <v>-0.01127049622254525</v>
       </c>
       <c r="E64">
-        <v>-0.02894972069026385</v>
+        <v>0.02100353240431315</v>
       </c>
       <c r="F64">
-        <v>-0.0302764603335045</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>-0.0380174133211597</v>
+      </c>
+      <c r="G64">
+        <v>-0.03071451053460289</v>
+      </c>
+      <c r="H64">
+        <v>0.05470704807012598</v>
+      </c>
+      <c r="I64">
+        <v>-0.03678148183578635</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>0.02407190947964685</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>0.01174433963182043</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>-0.005577141681072551</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>0.007004957967713843</v>
       </c>
       <c r="F65">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>-0.004094756750419962</v>
+      </c>
+      <c r="G65">
+        <v>0.01985543743449872</v>
+      </c>
+      <c r="H65">
+        <v>-0.01664486167591523</v>
+      </c>
+      <c r="I65">
+        <v>0.003525607306270467</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>0.07919968868828946</v>
+        <v>0.06783311218857029</v>
       </c>
       <c r="C66">
-        <v>-0.02847610619213341</v>
+        <v>0.05690244951112779</v>
       </c>
       <c r="D66">
-        <v>0.05330348292302568</v>
+        <v>0.01111620641695366</v>
       </c>
       <c r="E66">
-        <v>-0.0001216193326750556</v>
+        <v>0.04839565346600135</v>
       </c>
       <c r="F66">
-        <v>-0.06960216671298028</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>-0.0662851294205833</v>
+      </c>
+      <c r="G66">
+        <v>0.007504583860751641</v>
+      </c>
+      <c r="H66">
+        <v>0.01124209248971886</v>
+      </c>
+      <c r="I66">
+        <v>-0.04210602598682896</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>0.05395264229560601</v>
+        <v>0.04760417368145754</v>
       </c>
       <c r="C67">
-        <v>0.01183270025895575</v>
+        <v>-0.002484797279740096</v>
       </c>
       <c r="D67">
-        <v>0.004866641911251648</v>
+        <v>0.001363162061589396</v>
       </c>
       <c r="E67">
-        <v>-0.007345968840342082</v>
+        <v>0.01017334295811285</v>
       </c>
       <c r="F67">
-        <v>-0.01585960969362043</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>-0.03631151637040268</v>
+      </c>
+      <c r="G67">
+        <v>-0.01256261656889175</v>
+      </c>
+      <c r="H67">
+        <v>0.03469180102255765</v>
+      </c>
+      <c r="I67">
+        <v>0.02396733423638949</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>0.04064749107563704</v>
+        <v>0.05999776926139613</v>
       </c>
       <c r="C68">
-        <v>0.2208662851428084</v>
+        <v>-0.2374936537453237</v>
       </c>
       <c r="D68">
-        <v>-0.1039628241893053</v>
+        <v>0.02386966590098223</v>
       </c>
       <c r="E68">
-        <v>0.03368702486994909</v>
+        <v>-0.04047566477273352</v>
       </c>
       <c r="F68">
-        <v>-0.05054745400467166</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>-0.05006068364529537</v>
+      </c>
+      <c r="G68">
+        <v>-0.02021985559448029</v>
+      </c>
+      <c r="H68">
+        <v>-0.004620002462426167</v>
+      </c>
+      <c r="I68">
+        <v>-0.03516598892632691</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>0.08034524043142845</v>
+        <v>0.07274959195001947</v>
       </c>
       <c r="C69">
-        <v>-0.000576059788086554</v>
+        <v>0.02006020925698246</v>
       </c>
       <c r="D69">
-        <v>0.0280880129820149</v>
+        <v>0.005735436401975871</v>
       </c>
       <c r="E69">
-        <v>0.0003706416329600709</v>
+        <v>0.03165895159187396</v>
       </c>
       <c r="F69">
-        <v>0.0187841069894446</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>0.005147960878649735</v>
+      </c>
+      <c r="G69">
+        <v>-0.03854574470658662</v>
+      </c>
+      <c r="H69">
+        <v>0.01990576331587203</v>
+      </c>
+      <c r="I69">
+        <v>-0.01739128207498023</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>0.03800110543604202</v>
+        <v>0.05654089432618142</v>
       </c>
       <c r="C71">
-        <v>0.2630222873720022</v>
+        <v>-0.2586504334968414</v>
       </c>
       <c r="D71">
-        <v>-0.121440519621741</v>
+        <v>0.02860263426553027</v>
       </c>
       <c r="E71">
-        <v>0.07497947618560914</v>
+        <v>-0.06600580219106363</v>
       </c>
       <c r="F71">
-        <v>-0.08594331018160054</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>-0.07128563089706669</v>
+      </c>
+      <c r="G71">
+        <v>-0.02605686979225319</v>
+      </c>
+      <c r="H71">
+        <v>0.02020899806229193</v>
+      </c>
+      <c r="I71">
+        <v>-0.04538281391011173</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>0.1293872237358706</v>
+        <v>0.1249294947603266</v>
       </c>
       <c r="C72">
-        <v>0.02909395911324301</v>
+        <v>0.03760481589061871</v>
       </c>
       <c r="D72">
-        <v>0.05368199194043759</v>
+        <v>0.00858801980537781</v>
       </c>
       <c r="E72">
-        <v>-0.001456381920233571</v>
+        <v>0.07473781084899939</v>
       </c>
       <c r="F72">
-        <v>-0.06987364386700008</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>-0.08383875620530777</v>
+      </c>
+      <c r="G72">
+        <v>0.03132668121464798</v>
+      </c>
+      <c r="H72">
+        <v>-0.04242495163650316</v>
+      </c>
+      <c r="I72">
+        <v>0.1174089594089898</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>0.2767072307867822</v>
+        <v>0.2721947362017047</v>
       </c>
       <c r="C73">
-        <v>0.1384486388191825</v>
+        <v>-0.07034075449881561</v>
       </c>
       <c r="D73">
-        <v>-0.03870747786168984</v>
+        <v>0.08930304382675915</v>
       </c>
       <c r="E73">
-        <v>0.1073035248117759</v>
+        <v>-0.03524768425548855</v>
       </c>
       <c r="F73">
-        <v>-0.3596804539327697</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>-0.3122630538094783</v>
+      </c>
+      <c r="G73">
+        <v>0.5382783620638514</v>
+      </c>
+      <c r="H73">
+        <v>-0.01500668121252131</v>
+      </c>
+      <c r="I73">
+        <v>0.1076281824268629</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>0.1484748955077488</v>
+        <v>0.1466295114711104</v>
       </c>
       <c r="C74">
-        <v>0.006320261540048003</v>
+        <v>0.03348381520081805</v>
       </c>
       <c r="D74">
-        <v>0.04914694098131897</v>
+        <v>0.01050925849566789</v>
       </c>
       <c r="E74">
-        <v>0.001630111571120156</v>
+        <v>0.05386239776921768</v>
       </c>
       <c r="F74">
-        <v>0.04953679836692183</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>0.06843771709921739</v>
+      </c>
+      <c r="G74">
+        <v>0.02595171469375088</v>
+      </c>
+      <c r="H74">
+        <v>-0.01669012203832217</v>
+      </c>
+      <c r="I74">
+        <v>-0.07611130952673001</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>0.2247127094780495</v>
+        <v>0.246436938629666</v>
       </c>
       <c r="C75">
-        <v>0.03662606968928177</v>
+        <v>0.0212040831571541</v>
       </c>
       <c r="D75">
-        <v>0.08590771101731287</v>
+        <v>0.02810677179111632</v>
       </c>
       <c r="E75">
-        <v>0.006743325816775305</v>
+        <v>0.1155412128946856</v>
       </c>
       <c r="F75">
-        <v>0.1433303454581715</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>0.1470023109064209</v>
+      </c>
+      <c r="G75">
+        <v>0.01606040638606539</v>
+      </c>
+      <c r="H75">
+        <v>0.01606059958286697</v>
+      </c>
+      <c r="I75">
+        <v>-0.04343144126654725</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>0.2482483160292528</v>
+        <v>0.2627009806275012</v>
       </c>
       <c r="C76">
-        <v>0.07245920682082949</v>
+        <v>0.009279088115640231</v>
       </c>
       <c r="D76">
-        <v>0.08196341774974307</v>
+        <v>-0.01128091118900507</v>
       </c>
       <c r="E76">
-        <v>-0.06329862212728421</v>
+        <v>0.1394096569719736</v>
       </c>
       <c r="F76">
-        <v>0.1347028140347176</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>0.1835125521928347</v>
+      </c>
+      <c r="G76">
+        <v>0.04238201610749579</v>
+      </c>
+      <c r="H76">
+        <v>-0.05934150744963247</v>
+      </c>
+      <c r="I76">
+        <v>-0.05759049388806933</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>0.1382899388116501</v>
+        <v>0.1197121474471471</v>
       </c>
       <c r="C77">
-        <v>-0.06310527053563944</v>
+        <v>0.07465862539723868</v>
       </c>
       <c r="D77">
-        <v>0.01427350880160844</v>
+        <v>0.006212737429308677</v>
       </c>
       <c r="E77">
-        <v>0.01478927130499707</v>
+        <v>-0.03283098768620014</v>
       </c>
       <c r="F77">
-        <v>-0.1463781643397041</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>-0.1588845861421356</v>
+      </c>
+      <c r="G77">
+        <v>-0.2094045479267609</v>
+      </c>
+      <c r="H77">
+        <v>-0.03322964436761496</v>
+      </c>
+      <c r="I77">
+        <v>-0.2393021844853858</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>0.09528105688677625</v>
+        <v>0.0725009298308469</v>
       </c>
       <c r="C78">
-        <v>-0.0762363472146326</v>
+        <v>0.07471107136922586</v>
       </c>
       <c r="D78">
-        <v>0.02160200130043954</v>
+        <v>-0.006587359103558856</v>
       </c>
       <c r="E78">
-        <v>-0.008888874443922345</v>
+        <v>0.008018333679860382</v>
       </c>
       <c r="F78">
-        <v>-0.04730046936893215</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>-0.06834176194782859</v>
+      </c>
+      <c r="G78">
+        <v>-0.0186904673541429</v>
+      </c>
+      <c r="H78">
+        <v>0.01767232159800563</v>
+      </c>
+      <c r="I78">
+        <v>-0.04620878398792542</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>0.1040876304553888</v>
+        <v>0.1383118193661342</v>
       </c>
       <c r="C80">
-        <v>-0.02125155086395905</v>
+        <v>-0.06840381404017178</v>
       </c>
       <c r="D80">
-        <v>-0.2907931475415956</v>
+        <v>-0.9739031339402543</v>
       </c>
       <c r="E80">
-        <v>-0.924257160539622</v>
+        <v>-0.05417805960024639</v>
       </c>
       <c r="F80">
-        <v>-0.08862666629693268</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>-0.04531467509511997</v>
+      </c>
+      <c r="G80">
+        <v>0.0293388967200407</v>
+      </c>
+      <c r="H80">
+        <v>0.03627541040386233</v>
+      </c>
+      <c r="I80">
+        <v>0.09722609269571938</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>0.1582675843434195</v>
+        <v>0.1815111178148922</v>
       </c>
       <c r="C81">
-        <v>0.0256399395511648</v>
+        <v>0.008333696433262091</v>
       </c>
       <c r="D81">
-        <v>0.04741233157008878</v>
+        <v>0.007476491835634921</v>
       </c>
       <c r="E81">
-        <v>-0.01066143599953829</v>
+        <v>0.08722455918504946</v>
       </c>
       <c r="F81">
-        <v>0.1788015131004071</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>0.1601747459794406</v>
+      </c>
+      <c r="G81">
+        <v>-0.001635369573752329</v>
+      </c>
+      <c r="H81">
+        <v>-0.02606425960986908</v>
+      </c>
+      <c r="I81">
+        <v>-0.01319067122000679</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>0.09422858210041571</v>
+        <v>0.07052148739995398</v>
       </c>
       <c r="C83">
-        <v>-0.09238270716875617</v>
+        <v>0.05875711027946438</v>
       </c>
       <c r="D83">
-        <v>-0.009668897684990142</v>
+        <v>0.01276946086261319</v>
       </c>
       <c r="E83">
-        <v>0.03874454397117784</v>
+        <v>-0.03322175756553208</v>
       </c>
       <c r="F83">
-        <v>-0.01264010816986721</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>-0.04454317777217755</v>
+      </c>
+      <c r="G83">
+        <v>-0.05136103317359427</v>
+      </c>
+      <c r="H83">
+        <v>0.06619724518240148</v>
+      </c>
+      <c r="I83">
+        <v>-0.05202772266229613</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>0.2351910087924119</v>
+        <v>0.2495898660445301</v>
       </c>
       <c r="C85">
-        <v>-0.002882338079668245</v>
+        <v>0.05161214582426427</v>
       </c>
       <c r="D85">
-        <v>0.07781603299425906</v>
+        <v>0.007114776229759132</v>
       </c>
       <c r="E85">
-        <v>-0.05616531386457343</v>
+        <v>0.1123097459325778</v>
       </c>
       <c r="F85">
-        <v>0.1552062571334851</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>0.1850068252958095</v>
+      </c>
+      <c r="G85">
+        <v>-0.006426714021150311</v>
+      </c>
+      <c r="H85">
+        <v>-0.0233026885216285</v>
+      </c>
+      <c r="I85">
+        <v>-0.07398151286847303</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>0.04183872271819553</v>
+        <v>0.02876695667850792</v>
       </c>
       <c r="C86">
-        <v>-0.04615148313765593</v>
+        <v>0.05517632662381029</v>
       </c>
       <c r="D86">
-        <v>0.03964426640640507</v>
+        <v>0.0009322583328988126</v>
       </c>
       <c r="E86">
-        <v>0.006481668547013038</v>
+        <v>0.01802687435243477</v>
       </c>
       <c r="F86">
-        <v>-0.0632628018694054</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>-0.07801136576243158</v>
+      </c>
+      <c r="G86">
+        <v>-0.06354597546153502</v>
+      </c>
+      <c r="H86">
+        <v>0.00379081620889265</v>
+      </c>
+      <c r="I86">
+        <v>-0.0559212829297387</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>0.01998139612353154</v>
+        <v>0.02787620192663873</v>
       </c>
       <c r="C87">
-        <v>0.03356257434759055</v>
+        <v>-0.006921497447355955</v>
       </c>
       <c r="D87">
-        <v>-0.01617163460923099</v>
+        <v>-0.003993072036153606</v>
       </c>
       <c r="E87">
-        <v>0.005686527023105544</v>
+        <v>-0.003856303343115301</v>
       </c>
       <c r="F87">
-        <v>-0.08967974484337954</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>-0.1020134254281139</v>
+      </c>
+      <c r="G87">
+        <v>-0.02841978624820412</v>
+      </c>
+      <c r="H87">
+        <v>-0.0158307750968187</v>
+      </c>
+      <c r="I87">
+        <v>-0.0325540098216505</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>0.03220723833591694</v>
+        <v>0.0366370604858529</v>
       </c>
       <c r="C88">
-        <v>-0.02041595376007577</v>
+        <v>0.009968041645186967</v>
       </c>
       <c r="D88">
-        <v>0.01472437811371436</v>
+        <v>-0.005851749820678223</v>
       </c>
       <c r="E88">
-        <v>-0.02244243889834902</v>
+        <v>0.006757897988253023</v>
       </c>
       <c r="F88">
-        <v>0.02429569380414368</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>0.01837781695364298</v>
+      </c>
+      <c r="G88">
+        <v>-0.02465542458969892</v>
+      </c>
+      <c r="H88">
+        <v>0.04388386218940724</v>
+      </c>
+      <c r="I88">
+        <v>-0.005845998052808976</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>0.05043174993016276</v>
+        <v>0.08979443538295762</v>
       </c>
       <c r="C89">
-        <v>0.3223259691107119</v>
+        <v>-0.3835803805557334</v>
       </c>
       <c r="D89">
-        <v>-0.2029172658936171</v>
+        <v>0.05681846324233621</v>
       </c>
       <c r="E89">
-        <v>0.08650330532785233</v>
+        <v>-0.07536894103208316</v>
       </c>
       <c r="F89">
-        <v>-0.009605421529210326</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>-0.03621808330988008</v>
+      </c>
+      <c r="G89">
+        <v>-0.1065101155457161</v>
+      </c>
+      <c r="H89">
+        <v>0.04411228791388812</v>
+      </c>
+      <c r="I89">
+        <v>-0.08657215824407355</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>0.03650337040834637</v>
+        <v>0.05669510043259994</v>
       </c>
       <c r="C90">
-        <v>0.2778892865139921</v>
+        <v>-0.3301988386807296</v>
       </c>
       <c r="D90">
-        <v>-0.1645488529485635</v>
+        <v>0.03035787097957923</v>
       </c>
       <c r="E90">
-        <v>0.02440068633025778</v>
+        <v>-0.06954251406034917</v>
       </c>
       <c r="F90">
-        <v>-0.06947609199973978</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.04039419220682971</v>
+      </c>
+      <c r="G90">
+        <v>-0.05188753395730185</v>
+      </c>
+      <c r="H90">
+        <v>0.009464752998174017</v>
+      </c>
+      <c r="I90">
+        <v>-0.06014382070098957</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>0.2670040787475327</v>
+        <v>0.2849911648666812</v>
       </c>
       <c r="C91">
-        <v>0.003654288198388797</v>
+        <v>0.05076311430248626</v>
       </c>
       <c r="D91">
-        <v>0.07622064635539387</v>
+        <v>0.01620024023753219</v>
       </c>
       <c r="E91">
-        <v>-0.0398341469833737</v>
+        <v>0.1064461775728748</v>
       </c>
       <c r="F91">
-        <v>0.2695465441852641</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>0.2702053076884555</v>
+      </c>
+      <c r="G91">
+        <v>0.01170410710883608</v>
+      </c>
+      <c r="H91">
+        <v>-0.05035367499234362</v>
+      </c>
+      <c r="I91">
+        <v>-0.06054481979700981</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>0.07022802615941906</v>
+        <v>0.1267072184848161</v>
       </c>
       <c r="C92">
-        <v>0.2933666631474362</v>
+        <v>-0.3769724508223984</v>
       </c>
       <c r="D92">
-        <v>-0.2398269865357587</v>
+        <v>0.01776112422405448</v>
       </c>
       <c r="E92">
-        <v>0.007117358958254204</v>
+        <v>-0.09173037967650591</v>
       </c>
       <c r="F92">
-        <v>0.1050305856625268</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>0.1203635626711793</v>
+      </c>
+      <c r="G92">
+        <v>-0.3204077192603968</v>
+      </c>
+      <c r="H92">
+        <v>-0.05841669996187308</v>
+      </c>
+      <c r="I92">
+        <v>0.09920450651667823</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>0.0326190409230685</v>
+        <v>0.07426953527155566</v>
       </c>
       <c r="C93">
-        <v>0.3263261440193356</v>
+        <v>-0.3959417906910194</v>
       </c>
       <c r="D93">
-        <v>-0.2144317529597797</v>
+        <v>0.04767870491555667</v>
       </c>
       <c r="E93">
-        <v>0.04406071848629376</v>
+        <v>-0.1108617920512998</v>
       </c>
       <c r="F93">
-        <v>0.005890904806129426</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.001481035459084079</v>
+      </c>
+      <c r="G93">
+        <v>-0.0295821334191495</v>
+      </c>
+      <c r="H93">
+        <v>0.05031267140922804</v>
+      </c>
+      <c r="I93">
+        <v>-0.003376572600236596</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>0.2811803985110699</v>
+        <v>0.3124233025852868</v>
       </c>
       <c r="C94">
-        <v>0.1171892112180567</v>
+        <v>-0.04125381038571641</v>
       </c>
       <c r="D94">
-        <v>0.001136844051183535</v>
+        <v>0.04556109228937796</v>
       </c>
       <c r="E94">
-        <v>-0.01128175097004373</v>
+        <v>0.1174117468585947</v>
       </c>
       <c r="F94">
-        <v>0.3267289231652729</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>0.3114691140281048</v>
+      </c>
+      <c r="G94">
+        <v>-0.04669340106451111</v>
+      </c>
+      <c r="H94">
+        <v>-0.2134916249333732</v>
+      </c>
+      <c r="I94">
+        <v>-0.01360634504175263</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>0.1698303305792323</v>
+        <v>0.1307858326865324</v>
       </c>
       <c r="C95">
-        <v>-0.04967989441605479</v>
+        <v>0.05383400149578394</v>
       </c>
       <c r="D95">
-        <v>0.01651052769987642</v>
+        <v>0.0817318564494106</v>
       </c>
       <c r="E95">
-        <v>0.0749823965800062</v>
+        <v>0.0303991683483296</v>
       </c>
       <c r="F95">
-        <v>0.414007107491429</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>0.1143055857217545</v>
+      </c>
+      <c r="G95">
+        <v>-0.1238819372478444</v>
+      </c>
+      <c r="H95">
+        <v>0.8653322604191374</v>
+      </c>
+      <c r="I95">
+        <v>0.36145407944677</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>0.2057826770592645</v>
+        <v>0.2072632485441358</v>
       </c>
       <c r="C98">
-        <v>0.08822346201261309</v>
+        <v>-0.06414897039593316</v>
       </c>
       <c r="D98">
-        <v>-0.02705298593651006</v>
+        <v>0.06453946602119504</v>
       </c>
       <c r="E98">
-        <v>0.08528782370279264</v>
+        <v>-0.02809605454718209</v>
       </c>
       <c r="F98">
-        <v>-0.1018900099170653</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>-0.1721073825832325</v>
+      </c>
+      <c r="G98">
+        <v>0.3427426573569697</v>
+      </c>
+      <c r="H98">
+        <v>0.02522167226639289</v>
+      </c>
+      <c r="I98">
+        <v>0.1094804606893107</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>0.03246612139801773</v>
+        <v>0.01868864483956199</v>
       </c>
       <c r="C101">
-        <v>-0.01767799485127422</v>
+        <v>0.03222670225246126</v>
       </c>
       <c r="D101">
-        <v>0.03784570738425592</v>
+        <v>-0.005616294238242649</v>
       </c>
       <c r="E101">
-        <v>-0.01597952720047581</v>
+        <v>0.03807580234746143</v>
       </c>
       <c r="F101">
-        <v>-0.01800576919556686</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>-0.06208619428068548</v>
+      </c>
+      <c r="G101">
+        <v>-0.1109797140139439</v>
+      </c>
+      <c r="H101">
+        <v>-0.03111947688397549</v>
+      </c>
+      <c r="I101">
+        <v>0.1140521204672564</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>0.1009061057882179</v>
+        <v>0.1170047991855784</v>
       </c>
       <c r="C102">
-        <v>-0.01247096120869253</v>
+        <v>0.02632960946624187</v>
       </c>
       <c r="D102">
-        <v>0.04983277135427473</v>
+        <v>-0.004985310090482514</v>
       </c>
       <c r="E102">
-        <v>-0.04040311590410895</v>
+        <v>0.05386940310352224</v>
       </c>
       <c r="F102">
-        <v>0.09885607979189916</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>0.1154964445829035</v>
+      </c>
+      <c r="G102">
+        <v>-0.0008043362577232217</v>
+      </c>
+      <c r="H102">
+        <v>-0.002697226359181494</v>
+      </c>
+      <c r="I102">
+        <v>-0.05533087809037963</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>0.02006089025098862</v>
+        <v>0.0289457317923483</v>
       </c>
       <c r="C103">
-        <v>-0.004105092786224084</v>
+        <v>0.008013542503185334</v>
       </c>
       <c r="D103">
-        <v>0.01535671155541862</v>
+        <v>-0.00884979440792103</v>
       </c>
       <c r="E103">
-        <v>-0.005709236643405658</v>
+        <v>0.01872279431592988</v>
       </c>
       <c r="F103">
-        <v>0.03596576217796314</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>0.02703702174806107</v>
+      </c>
+      <c r="G103">
+        <v>-0.01809937959036587</v>
+      </c>
+      <c r="H103">
+        <v>0.008025977096270415</v>
+      </c>
+      <c r="I103">
+        <v>-0.01217128617348031</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
